--- a/Atskaite.xlsx
+++ b/Atskaite.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nr.</t>
   </si>
@@ -36,6 +36,10 @@
     <t>1. Sagatavoju exel failu. 
 2.Aprakstīju Rīkjoslas, Dashboard, Clients
 3.Iesākts aprakstīt Quotes</t>
+  </si>
+  <si>
+    <t>1. Pabeidzu aprakstīt Quotes
+2. Aprakstīju Invoices, Products</t>
   </si>
 </sst>
 </file>
@@ -337,11 +341,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,50 +391,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +732,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,487 +750,517 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>42436</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="16">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="17">
+        <v>42438</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="24">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <f t="shared" ref="A5:A35" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="8"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="8"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="8"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="8"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="8"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="8"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="8"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="8"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="C34:H34"/>
@@ -1222,30 +1271,6 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Atskaite.xlsx
+++ b/Atskaite.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nr.</t>
   </si>
@@ -40,6 +40,9 @@
   <si>
     <t>1. Pabeidzu aprakstīt Quotes
 2. Aprakstīju Invoices, Products</t>
+  </si>
+  <si>
+    <t>1. Aprakstīju Payment</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,6 +367,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -373,6 +382,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -382,38 +418,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +738,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,14 +756,14 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
@@ -769,14 +775,14 @@
       <c r="B3" s="4">
         <v>42436</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="7">
         <v>5</v>
       </c>
@@ -786,18 +792,18 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="8">
         <v>42438</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="24">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="9">
         <v>4</v>
       </c>
     </row>
@@ -806,14 +812,20 @@
         <f t="shared" ref="A5:A35" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="5"/>
+      <c r="B5" s="8">
+        <v>42438</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -821,12 +833,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,12 +847,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -849,12 +861,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,12 +875,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -877,12 +889,12 @@
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -891,12 +903,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,12 +917,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -919,12 +931,12 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -933,12 +945,12 @@
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -947,12 +959,12 @@
         <v>13</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -961,12 +973,12 @@
         <v>14</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -975,12 +987,12 @@
         <v>15</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -989,12 +1001,12 @@
         <v>16</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1003,12 +1015,12 @@
         <v>17</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1017,12 +1029,12 @@
         <v>18</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1031,12 +1043,12 @@
         <v>19</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1045,12 +1057,12 @@
         <v>20</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1059,12 +1071,12 @@
         <v>21</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1073,12 +1085,12 @@
         <v>22</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1087,12 +1099,12 @@
         <v>23</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1101,12 +1113,12 @@
         <v>24</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1115,12 +1127,12 @@
         <v>25</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1129,12 +1141,12 @@
         <v>26</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1143,12 +1155,12 @@
         <v>27</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1157,12 +1169,12 @@
         <v>28</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,12 +1183,12 @@
         <v>29</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1185,12 +1197,12 @@
         <v>30</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1199,12 +1211,12 @@
         <v>31</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1213,12 +1225,12 @@
         <v>32</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1227,16 +1239,38 @@
         <v>33</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -1249,28 +1283,6 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
